--- a/23 - Matrizes de Rastreabilidade.xlsx
+++ b/23 - Matrizes de Rastreabilidade.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8cd3af5bce398e7e/ADS/terceiroSemestre/engenharia_de_requisitos/ACS/AC4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8cd3af5bce398e7e/OPE/pasta_git_grupo/engenharia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DB3BC87-760E-4896-BABA-CF57F219AE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{5DB3BC87-760E-4896-BABA-CF57F219AE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E876894E-96A6-4219-9E8F-379327A8753D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A14EA15-8D5F-4B7C-A9FD-2E4DBD6BE836}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
   <si>
     <t>Característica/Requisito</t>
   </si>
@@ -88,16 +88,73 @@
   </si>
   <si>
     <t>SSS - 0014</t>
+  </si>
+  <si>
+    <t>SSS - 0017</t>
+  </si>
+  <si>
+    <t>SSS - 0018</t>
+  </si>
+  <si>
+    <t>SSS - 0019</t>
+  </si>
+  <si>
+    <t>SSS - 0020</t>
+  </si>
+  <si>
+    <t>SSS - 0021</t>
+  </si>
+  <si>
+    <t>SSS - 0022</t>
+  </si>
+  <si>
+    <t>SSS - 0023</t>
+  </si>
+  <si>
+    <t>SSS - 0024</t>
+  </si>
+  <si>
+    <t>SSS - 0025</t>
+  </si>
+  <si>
+    <t>SSS - 0026</t>
+  </si>
+  <si>
+    <t>SSS - 0027</t>
+  </si>
+  <si>
+    <t>SSS - 0028</t>
+  </si>
+  <si>
+    <t>SSS - 0029</t>
+  </si>
+  <si>
+    <t>SSS - 0030</t>
+  </si>
+  <si>
+    <t>SSS - 0031</t>
+  </si>
+  <si>
+    <t>SSS - 0032</t>
+  </si>
+  <si>
+    <t>SSS - 0033</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -442,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CD0980-39ED-4FED-9E3A-4FC9A750B574}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:AI31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,7 +510,7 @@
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -505,8 +562,59 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -526,8 +634,30 @@
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -547,8 +677,30 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -568,8 +720,30 @@
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -589,8 +763,30 @@
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -612,8 +808,28 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -635,8 +851,28 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -658,8 +894,28 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -679,8 +935,30 @@
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -700,8 +978,30 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -721,8 +1021,30 @@
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -748,8 +1070,28 @@
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -769,8 +1111,30 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -796,8 +1160,28 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -817,8 +1201,28 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -840,8 +1244,30 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -867,8 +1293,28 @@
       <c r="Q17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -892,8 +1338,28 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -913,8 +1379,30 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -934,8 +1422,29 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -955,8 +1464,30 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -976,8 +1507,32 @@
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -997,8 +1552,32 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1026,8 +1605,28 @@
       <c r="Q24" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1049,8 +1648,28 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1070,8 +1689,30 @@
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1091,8 +1732,30 @@
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1112,8 +1775,30 @@
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH28" s="1"/>
+      <c r="AI28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1131,7 +1816,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1149,7 +1834,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1168,6 +1853,7 @@
       <c r="Q31" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/23 - Matrizes de Rastreabilidade.xlsx
+++ b/23 - Matrizes de Rastreabilidade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8cd3af5bce398e7e/OPE/pasta_git_grupo/engenharia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{5DB3BC87-760E-4896-BABA-CF57F219AE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E876894E-96A6-4219-9E8F-379327A8753D}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="8_{5DB3BC87-760E-4896-BABA-CF57F219AE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3D3B47D0-49A1-4976-9435-558E3C91DE04}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A14EA15-8D5F-4B7C-A9FD-2E4DBD6BE836}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>Característica/Requisito</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>SSS - 0033</t>
+  </si>
+  <si>
+    <t>SSS - 0034</t>
+  </si>
+  <si>
+    <t>SSS - 0035</t>
+  </si>
+  <si>
+    <t>SSS - 0036</t>
   </si>
 </sst>
 </file>
@@ -499,18 +508,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CD0980-39ED-4FED-9E3A-4FC9A750B574}">
-  <dimension ref="A1:AI31"/>
+  <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z35" sqref="Z35"/>
+    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
+      <selection activeCell="AN12" sqref="AN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="21" max="21" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -613,8 +623,17 @@
       <c r="AH1" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -639,7 +658,6 @@
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -653,11 +671,12 @@
       <c r="AF2" s="1"/>
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
-      <c r="AI2">
+      <c r="AI2" s="1"/>
+      <c r="AL2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -682,7 +701,6 @@
         <v>16</v>
       </c>
       <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -696,11 +714,12 @@
       <c r="AF3" s="1"/>
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
-      <c r="AI3">
+      <c r="AI3" s="1"/>
+      <c r="AL3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -723,7 +742,6 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -731,19 +749,20 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
-      <c r="AC4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
-      <c r="AI4">
+      <c r="AI4" s="1"/>
+      <c r="AL4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -768,7 +787,6 @@
       <c r="T5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -782,11 +800,12 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
-      <c r="AI5">
+      <c r="AI5" s="1"/>
+      <c r="AL5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -811,7 +830,6 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -825,11 +843,12 @@
       <c r="AF6" s="1"/>
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
-      <c r="AI6">
+      <c r="AI6" s="1"/>
+      <c r="AL6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -854,7 +873,6 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -868,11 +886,12 @@
       <c r="AF7" s="1"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
-      <c r="AI7">
+      <c r="AI7" s="1"/>
+      <c r="AL7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -897,7 +916,6 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
@@ -911,11 +929,12 @@
       <c r="AF8" s="1"/>
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
-      <c r="AI8">
+      <c r="AI8" s="1"/>
+      <c r="AL8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -938,10 +957,9 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V9" s="1"/>
+      <c r="V9" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
@@ -954,11 +972,12 @@
       <c r="AF9" s="1"/>
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
-      <c r="AI9">
+      <c r="AI9" s="1"/>
+      <c r="AL9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -981,11 +1000,10 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
@@ -997,11 +1015,12 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
-      <c r="AI10">
+      <c r="AI10" s="1"/>
+      <c r="AL10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1024,7 +1043,6 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
@@ -1034,17 +1052,18 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
-      <c r="AE11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
-      <c r="AI11">
+      <c r="AI11" s="1"/>
+      <c r="AL11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1073,7 +1092,6 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -1087,11 +1105,12 @@
       <c r="AF12" s="1"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
-      <c r="AI12">
+      <c r="AI12" s="1"/>
+      <c r="AL12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1114,14 +1133,13 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
@@ -1130,11 +1148,12 @@
       <c r="AF13" s="1"/>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
-      <c r="AI13">
+      <c r="AI13" s="1"/>
+      <c r="AL13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1163,7 +1182,6 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -1177,11 +1195,12 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
-      <c r="AI14">
+      <c r="AI14" s="1"/>
+      <c r="AL14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1204,7 +1223,6 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -1218,11 +1236,12 @@
       <c r="AF15" s="1"/>
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
-      <c r="AI15">
+      <c r="AI15" s="1"/>
+      <c r="AL15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1247,15 +1266,14 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
-      <c r="Z16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
@@ -1263,11 +1281,12 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
-      <c r="AI16">
+      <c r="AI16" s="1"/>
+      <c r="AL16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1296,7 +1315,6 @@
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
@@ -1310,11 +1328,12 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
-      <c r="AI17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AI17" s="1"/>
+      <c r="AL17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1341,7 +1360,6 @@
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
@@ -1355,11 +1373,12 @@
       <c r="AF18" s="1"/>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
-      <c r="AI18">
+      <c r="AI18" s="1"/>
+      <c r="AL18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1382,27 +1401,27 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
-      <c r="AA19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
-      <c r="AI19">
+      <c r="AI19" s="1"/>
+      <c r="AL19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1425,7 +1444,6 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
@@ -1434,17 +1452,18 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-      <c r="AD20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
-      <c r="AI20">
+      <c r="AI20" s="1"/>
+      <c r="AL20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1467,7 +1486,6 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -1478,16 +1496,17 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
-      <c r="AF21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="AH21" s="1"/>
-      <c r="AI21">
+      <c r="AI21" s="1"/>
+      <c r="AL21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1510,15 +1529,14 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="W22" s="1"/>
       <c r="X22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Y22" s="1"/>
+      <c r="Y22" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
@@ -1528,11 +1546,12 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
-      <c r="AI22">
+      <c r="AI22" s="1"/>
+      <c r="AL22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1557,7 +1576,6 @@
       </c>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
@@ -1567,17 +1585,18 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
-      <c r="AE23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
-      <c r="AI23">
+      <c r="AI23" s="1"/>
+      <c r="AL23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1608,7 +1627,6 @@
       <c r="R24" s="1"/>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
@@ -1622,11 +1640,12 @@
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
-      <c r="AI24">
+      <c r="AI24" s="1"/>
+      <c r="AL24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1651,7 +1670,6 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
@@ -1665,11 +1683,12 @@
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
-      <c r="AI25">
+      <c r="AI25" s="1"/>
+      <c r="AL25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1692,7 +1711,6 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
@@ -1705,14 +1723,15 @@
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
-      <c r="AH26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI26">
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1735,27 +1754,27 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
-      <c r="AB27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
       <c r="AH27" s="1"/>
-      <c r="AI27">
+      <c r="AI27" s="1"/>
+      <c r="AL27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1778,7 +1797,6 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
@@ -1790,15 +1808,16 @@
       <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
-      <c r="AG28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH28" s="1"/>
-      <c r="AI28">
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI28" s="1"/>
+      <c r="AL28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1816,7 +1835,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1834,7 +1853,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>

--- a/23 - Matrizes de Rastreabilidade.xlsx
+++ b/23 - Matrizes de Rastreabilidade.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8cd3af5bce398e7e/OPE/pasta_git_grupo/engenharia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8cd3af5bce398e7e/ADS/terceiroSemestre/engenharia_de_requisitos/ACS/AC5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{5DB3BC87-760E-4896-BABA-CF57F219AE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3D3B47D0-49A1-4976-9435-558E3C91DE04}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{5DB3BC87-760E-4896-BABA-CF57F219AE7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A5465F1F-F937-409F-A33F-BDFC0AB15DC7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A14EA15-8D5F-4B7C-A9FD-2E4DBD6BE836}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
   <si>
     <t>Característica/Requisito</t>
   </si>
@@ -84,70 +84,73 @@
     <t>SSS - 0016</t>
   </si>
   <si>
+    <t>SSS - 0014</t>
+  </si>
+  <si>
+    <t>SSS - 0017</t>
+  </si>
+  <si>
+    <t>SSS - 0018</t>
+  </si>
+  <si>
+    <t>SSS - 0019</t>
+  </si>
+  <si>
+    <t>SSS - 0020</t>
+  </si>
+  <si>
+    <t>SSS - 0021</t>
+  </si>
+  <si>
+    <t>SSS - 0022</t>
+  </si>
+  <si>
+    <t>SSS - 0023</t>
+  </si>
+  <si>
+    <t>SSS - 0024</t>
+  </si>
+  <si>
+    <t>SSS - 0025</t>
+  </si>
+  <si>
+    <t>SSS - 0026</t>
+  </si>
+  <si>
+    <t>SSS - 0027</t>
+  </si>
+  <si>
+    <t>SSS - 0028</t>
+  </si>
+  <si>
+    <t>SSS - 0029</t>
+  </si>
+  <si>
+    <t>SSS - 0030</t>
+  </si>
+  <si>
+    <t>SSS - 0031</t>
+  </si>
+  <si>
+    <t>SSS - 0032</t>
+  </si>
+  <si>
+    <t>SSS - 0033</t>
+  </si>
+  <si>
+    <t>SSS - 0034</t>
+  </si>
+  <si>
+    <t>SSS - 0035</t>
+  </si>
+  <si>
+    <t>SSS - 0036</t>
+  </si>
+  <si>
+    <t>SSS - 0037</t>
+  </si>
+  <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>SSS - 0014</t>
-  </si>
-  <si>
-    <t>SSS - 0017</t>
-  </si>
-  <si>
-    <t>SSS - 0018</t>
-  </si>
-  <si>
-    <t>SSS - 0019</t>
-  </si>
-  <si>
-    <t>SSS - 0020</t>
-  </si>
-  <si>
-    <t>SSS - 0021</t>
-  </si>
-  <si>
-    <t>SSS - 0022</t>
-  </si>
-  <si>
-    <t>SSS - 0023</t>
-  </si>
-  <si>
-    <t>SSS - 0024</t>
-  </si>
-  <si>
-    <t>SSS - 0025</t>
-  </si>
-  <si>
-    <t>SSS - 0026</t>
-  </si>
-  <si>
-    <t>SSS - 0027</t>
-  </si>
-  <si>
-    <t>SSS - 0028</t>
-  </si>
-  <si>
-    <t>SSS - 0029</t>
-  </si>
-  <si>
-    <t>SSS - 0030</t>
-  </si>
-  <si>
-    <t>SSS - 0031</t>
-  </si>
-  <si>
-    <t>SSS - 0032</t>
-  </si>
-  <si>
-    <t>SSS - 0033</t>
-  </si>
-  <si>
-    <t>SSS - 0034</t>
-  </si>
-  <si>
-    <t>SSS - 0035</t>
-  </si>
-  <si>
-    <t>SSS - 0036</t>
   </si>
 </sst>
 </file>
@@ -508,19 +511,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62CD0980-39ED-4FED-9E3A-4FC9A750B574}">
-  <dimension ref="A1:AL31"/>
+  <dimension ref="A1:AQ31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M4" workbookViewId="0">
-      <selection activeCell="AN12" sqref="AN12"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="18" width="12.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="20" width="13.5703125" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" customWidth="1"/>
+    <col min="23" max="23" width="12.28515625" customWidth="1"/>
+    <col min="24" max="24" width="15" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" customWidth="1"/>
+    <col min="27" max="27" width="15" customWidth="1"/>
+    <col min="28" max="28" width="13" customWidth="1"/>
+    <col min="29" max="29" width="12.140625" customWidth="1"/>
+    <col min="30" max="30" width="13.7109375" customWidth="1"/>
+    <col min="31" max="31" width="16.28515625" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" customWidth="1"/>
+    <col min="33" max="33" width="13.42578125" customWidth="1"/>
+    <col min="34" max="34" width="14.7109375" customWidth="1"/>
+    <col min="35" max="35" width="13.5703125" customWidth="1"/>
+    <col min="36" max="36" width="12.5703125" customWidth="1"/>
+    <col min="37" max="37" width="14.42578125" customWidth="1"/>
+    <col min="38" max="38" width="14" customWidth="1"/>
+    <col min="39" max="39" width="14.7109375" customWidth="1"/>
+    <col min="40" max="40" width="13.28515625" customWidth="1"/>
+    <col min="41" max="42" width="12.42578125" customWidth="1"/>
+    <col min="43" max="43" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +606,7 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>14</v>
@@ -573,68 +615,76 @@
         <v>15</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1"/>
@@ -649,15 +699,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="N2" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -672,12 +725,19 @@
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
-      <c r="AL2">
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1"/>
@@ -698,9 +758,10 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -715,12 +776,19 @@
       <c r="AG3" s="1"/>
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
-      <c r="AL3">
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1"/>
@@ -742,6 +810,7 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -751,19 +820,26 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
-      <c r="AL4">
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1"/>
@@ -785,8 +861,9 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -801,12 +878,19 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
-      <c r="AL5">
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
@@ -817,10 +901,12 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -830,6 +916,7 @@
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -844,12 +931,19 @@
       <c r="AG6" s="1"/>
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
-      <c r="AL6">
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1"/>
@@ -860,10 +954,12 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -873,6 +969,7 @@
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -887,12 +984,19 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
-      <c r="AL7">
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1"/>
@@ -903,10 +1007,12 @@
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -916,7 +1022,6 @@
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
@@ -930,12 +1035,19 @@
       <c r="AG8" s="1"/>
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
-      <c r="AL8">
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1"/>
@@ -957,8 +1069,11 @@
       <c r="R9" s="1"/>
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
+      <c r="U9" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V9" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
@@ -973,12 +1088,19 @@
       <c r="AG9" s="1"/>
       <c r="AH9" s="1"/>
       <c r="AI9" s="1"/>
-      <c r="AL9">
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1"/>
@@ -1000,9 +1122,10 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
@@ -1016,12 +1139,19 @@
       <c r="AG10" s="1"/>
       <c r="AH10" s="1"/>
       <c r="AI10" s="1"/>
-      <c r="AL10">
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1"/>
@@ -1043,6 +1173,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
@@ -1054,17 +1185,24 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AG11" s="1"/>
       <c r="AH11" s="1"/>
       <c r="AI11" s="1"/>
-      <c r="AL11">
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1"/>
@@ -1076,14 +1214,12 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -1092,6 +1228,7 @@
       <c r="R12" s="1"/>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -1106,12 +1243,19 @@
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
-      <c r="AL12">
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1"/>
@@ -1133,12 +1277,13 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
       <c r="Z13" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -1149,19 +1294,23 @@
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
-      <c r="AL13">
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -1169,9 +1318,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -1182,6 +1329,7 @@
       <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -1196,15 +1344,26 @@
       <c r="AG14" s="1"/>
       <c r="AH14" s="1"/>
       <c r="AI14" s="1"/>
-      <c r="AL14">
+      <c r="AJ14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1212,7 +1371,9 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -1223,6 +1384,7 @@
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -1237,19 +1399,26 @@
       <c r="AG15" s="1"/>
       <c r="AH15" s="1"/>
       <c r="AI15" s="1"/>
-      <c r="AL15">
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL15" s="1"/>
+      <c r="AM15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1266,13 +1435,14 @@
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
@@ -1282,12 +1452,19 @@
       <c r="AG16" s="1"/>
       <c r="AH16" s="1"/>
       <c r="AI16" s="1"/>
-      <c r="AL16">
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1"/>
@@ -1296,7 +1473,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1305,16 +1482,19 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="P17" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
@@ -1329,24 +1509,35 @@
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
-      <c r="AL17">
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F18" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1357,9 +1548,14 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
+      <c r="R18" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
+      <c r="U18" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
@@ -1371,15 +1567,26 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
+      <c r="AG18" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
-      <c r="AL18">
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1"/>
@@ -1401,6 +1608,7 @@
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
@@ -1408,7 +1616,7 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
@@ -1417,12 +1625,19 @@
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
-      <c r="AL19">
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1"/>
@@ -1444,6 +1659,7 @@
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
@@ -1454,17 +1670,25 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
-      <c r="AL20">
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1"/>
@@ -1486,6 +1710,7 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -1498,16 +1723,23 @@
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AH21" s="1"/>
       <c r="AI21" s="1"/>
-      <c r="AL21">
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1"/>
@@ -1529,13 +1761,12 @@
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="X22" s="1"/>
       <c r="Y22" s="1" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
@@ -1547,12 +1778,19 @@
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
-      <c r="AL22">
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="1"/>
@@ -1571,11 +1809,10 @@
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
-      <c r="R23" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="R23" s="1"/>
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
@@ -1586,18 +1823,23 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
-      <c r="AF23" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
-      <c r="AL23">
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="1"/>
@@ -1612,21 +1854,16 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
@@ -1641,20 +1878,25 @@
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
       <c r="AI24" s="1"/>
-      <c r="AL24">
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1670,6 +1912,7 @@
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
@@ -1684,12 +1927,19 @@
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
       <c r="AI25" s="1"/>
-      <c r="AL25">
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="1"/>
@@ -1711,6 +1961,7 @@
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
@@ -1718,21 +1969,30 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
+      <c r="AC26" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
       <c r="AH26" s="1"/>
       <c r="AI26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL26">
+        <v>38</v>
+      </c>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="1"/>
@@ -1754,30 +2014,37 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
+      <c r="X27" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
-      <c r="AC27" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
+      <c r="AH27" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="AI27" s="1"/>
-      <c r="AL27">
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1797,6 +2064,7 @@
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
@@ -1809,15 +2077,20 @@
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
-      <c r="AH28" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="AH28" s="1"/>
       <c r="AI28" s="1"/>
-      <c r="AL28">
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1835,7 +2108,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1853,7 +2126,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
